--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_22.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63820.44888928862</v>
+        <v>91954.0691671042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728811</v>
+        <v>9102620.618728807</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8024417.219963814</v>
+        <v>8024417.219963813</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>179.1388077377611</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>7.058423000547998</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>106.0725670814544</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>398.0313798843944</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.5568623361515</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,13 +1345,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>81.12200652863805</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>219.0570128933253</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.57678144609376</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228957</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>49.81045956598074</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>164.6242057717103</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>115.578263943092</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>53.06513659042616</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>129.0246247964034</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>261.9025067912348</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9918595228954</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>389.0396295043337</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017902</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2795,22 +2795,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>283.8737319044598</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>311.4936872159399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>162.5776147681366</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.925119512544452</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>358.2858791258605</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>118.316777032749</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.2114886365808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>368.0745826192877</v>
+        <v>284.56151600587</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.90301252244932</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>196.7218456862864</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3503,19 +3503,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>334.5817096732204</v>
+        <v>381.6269365471941</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>41.65592056208463</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>155.211488636581</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.0854493190877</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>275.4805812731082</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>63.57678144609365</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>133.0766988305491</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>215.8457181754135</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>69.95103447287279</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2516.200800374019</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2262.439015012111</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273827</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>214.5386780278486</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C5" t="n">
-        <v>207.4089578252748</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X5" t="n">
-        <v>991.2778500677821</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y5" t="n">
-        <v>601.1385180919704</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753676</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164661</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.500346212138</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>620.9849770534499</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>393.6767897220517</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4841,13 +4841,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2513.758320981706</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2140.292562720626</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1750.153230744814</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.1126181035247</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C11" t="n">
-        <v>494.150101163113</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D11" t="n">
-        <v>135.8844025563625</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036446</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036446</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5057,34 +5057,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018223</v>
+        <v>2420.850691555458</v>
       </c>
       <c r="V11" t="n">
-        <v>2366.086203674652</v>
+        <v>2089.787804211887</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.317548404538</v>
+        <v>1737.019148941773</v>
       </c>
       <c r="X11" t="n">
-        <v>1639.851790143458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y11" t="n">
-        <v>1249.712458167646</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>368.8844281164666</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>773.5003462121384</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5227,22 +5227,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776798</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785536</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889461</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533142</v>
@@ -5297,25 +5297,25 @@
         <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
         <v>2323.683332757143</v>
@@ -5352,19 +5352,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
         <v>1748.695370517453</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>398.3338608103787</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>398.3338608103787</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>398.3338608103787</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>398.3338608103787</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>398.3338608103787</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5458,28 +5458,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1744.23243129246</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C17" t="n">
-        <v>1375.269914352048</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D17" t="n">
-        <v>1017.004215745297</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E17" t="n">
-        <v>631.2159631470531</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F17" t="n">
-        <v>220.2300583574456</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5531,34 +5531,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X17" t="n">
-        <v>2520.971603332393</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y17" t="n">
-        <v>2130.832271356581</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>352.6741383092202</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>352.6741383092202</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>352.6741383092202</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1273.280804219766</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>904.3182872793539</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>904.3182872793539</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>518.5300346811096</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>107.544129891502</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733129</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.019976259699</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.880644283887</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C23" t="n">
-        <v>1177.981643776797</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D23" t="n">
-        <v>1177.981643776797</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E23" t="n">
-        <v>792.1933911785532</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F23" t="n">
-        <v>381.2074863889456</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
         <v>881.2824271224075</v>
@@ -6005,34 +6005,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2515.500626187983</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>2346.564443260076</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>2196.44780384774</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>2048.534710265347</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>2048.534710265347</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
         <v>2022.963088632153</v>
@@ -6151,46 +6151,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W25" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>2697.149091018222</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1970.914677487029</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C26" t="n">
-        <v>1601.952160546617</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D26" t="n">
-        <v>1243.686461939867</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E26" t="n">
-        <v>857.8982093416223</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F26" t="n">
-        <v>446.9123045520147</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6263,13 +6263,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487029</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1970.914677487029</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6309,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6388,37 +6388,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036446</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036446</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W28" t="n">
         <v>53.94298182036446</v>
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1995.909162857192</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>494.150101163113</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117855</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221778</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036471</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036471</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6497,16 +6497,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X29" t="n">
-        <v>2697.149091018223</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y29" t="n">
-        <v>2382.509002921314</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6625,43 +6625,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>563.9091713093267</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V31" t="n">
-        <v>274.7355609638946</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7355609638946</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
         <v>53.94298182036446</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1595.875667274027</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C32" t="n">
-        <v>1595.875667274027</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2695.204525854037</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018223</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W32" t="n">
-        <v>2344.380435748109</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X32" t="n">
-        <v>1982.475507338148</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y32" t="n">
-        <v>1982.475507338148</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.139433308417</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>331.2032503805101</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>331.2032503805101</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>331.2032503805101</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>331.2032503805101</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6913543878343</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064343</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X34" t="n">
-        <v>500.139433308417</v>
+        <v>2179.742370083245</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.139433308417</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1580.775345511217</v>
+        <v>1865.381229508783</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.775345511217</v>
+        <v>1496.418712568371</v>
       </c>
       <c r="D35" t="n">
-        <v>1222.509646904467</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E35" t="n">
-        <v>836.7213943062222</v>
+        <v>752.3647613633761</v>
       </c>
       <c r="F35" t="n">
-        <v>425.7354895166147</v>
+        <v>341.3788565737686</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036446</v>
@@ -6935,13 +6935,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748109</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487029</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C37" t="n">
-        <v>110.4106712369799</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D37" t="n">
-        <v>110.4106712369799</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E37" t="n">
-        <v>110.4106712369799</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>110.4106712369799</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036446</v>
@@ -7099,46 +7099,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064343</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064343</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X37" t="n">
-        <v>500.139433308417</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>279.3468541648868</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.94416071721</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.94416071721</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D38" t="n">
-        <v>1188.678462110459</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="E38" t="n">
-        <v>802.8902095122148</v>
+        <v>439.4247359084393</v>
       </c>
       <c r="F38" t="n">
-        <v>391.9043047226073</v>
+        <v>439.4247359084393</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036446</v>
@@ -7169,16 +7169,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036471</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7211,13 +7211,13 @@
         <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>96.01966925681359</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036446</v>
@@ -7336,46 +7336,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V40" t="n">
-        <v>571.3497027553424</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="W40" t="n">
-        <v>281.9325327183818</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691493</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>246.1363086691493</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1199.13500546934</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>830.1724885289282</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>471.9067899221776</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
@@ -7412,10 +7412,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7442,19 +7442,19 @@
         <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>1386.09000478155</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1386.09000478155</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614632</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>663.910013048764</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C43" t="n">
-        <v>663.910013048764</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D43" t="n">
-        <v>663.910013048764</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E43" t="n">
-        <v>663.910013048764</v>
+        <v>188.36388973001</v>
       </c>
       <c r="F43" t="n">
-        <v>517.0200655508536</v>
+        <v>188.36388973001</v>
       </c>
       <c r="G43" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036446</v>
@@ -7573,46 +7573,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1386.09000478155</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>1017.127487841138</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>799.1015098861748</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>799.1015098861748</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036446</v>
@@ -7649,16 +7649,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.555763042629</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1386.09000478155</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1386.09000478155</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>411.0461427127113</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>260.9295033003756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>260.9295033003756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>260.9295033003756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>260.9295033003756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036446</v>
@@ -7810,46 +7810,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>579.9823256406182</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V46" t="n">
-        <v>579.9823256406182</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>110.3707964059374</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004096</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>37.30951261989674</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,10 +22784,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>358.2144687704596</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22802,7 +22802,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>170.102160979652</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22957,13 +22957,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>106.0729718685645</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.75279013640062</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -23081,7 +23081,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>167.6841063812616</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23185,22 +23185,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -23233,13 +23233,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>300.8083635436237</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>32.16715461496395</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>82.85718120047541</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
         <v>45.19995918853699</v>
@@ -23467,16 +23467,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629394</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789928</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.4993426930702</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
         <v>45.19995918853699</v>
@@ -23698,7 +23698,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>249.1599642490847</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23905,13 +23905,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>40.59262489870319</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>360.7190334303688</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24148,7 +24148,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>96.01048066168084</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>24.62049154535623</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24209,7 +24209,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.79231049789962</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>141.9938968421889</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24440,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.74454051646126</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,22 +24646,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>56.01837628787177</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24683,22 +24683,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>70.8093097162232</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24737,16 +24737,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>74.74425144011366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>62.45749068994769</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>131.0703856053966</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>52.55328306226724</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -24977,10 +24977,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>11.44522155260853</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>48.99302522630188</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551401</v>
       </c>
     </row>
     <row r="35">
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>45.70958740150729</v>
+        <v>129.222654014925</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25214,10 +25214,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>111.4067897366016</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25333,7 +25333,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>28.31325977179785</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25391,19 +25391,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>79.20246034757463</v>
+        <v>32.15723347360091</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,7 +25451,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>104.7780420844845</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,25 +25594,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>96.92615468724699</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,19 +25625,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197.6483923443929</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>89.79231049789934</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25682,19 +25682,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>116.2551987358436</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,22 +25792,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>34.23310342850183</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,13 +25828,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>138.8373234452694</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25919,19 +25919,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,13 +26038,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>86.21985436892236</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,13 +26077,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>693966.2640378186</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>693966.2640378186</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693966.2640378184</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693966.2640378185</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>318067.8710173336</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="H2" t="n">
         <v>318067.8710173335</v>
       </c>
       <c r="I2" t="n">
+        <v>318067.8710173336</v>
+      </c>
+      <c r="J2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="K2" t="n">
-        <v>318067.8710173334</v>
-      </c>
       <c r="L2" t="n">
-        <v>318067.8710173334</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="M2" t="n">
         <v>318067.8710173334</v>
       </c>
       <c r="N2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="O2" t="n">
+        <v>318067.8710173336</v>
+      </c>
+      <c r="P2" t="n">
         <v>318067.8710173335</v>
-      </c>
-      <c r="O2" t="n">
-        <v>318067.8710173335</v>
-      </c>
-      <c r="P2" t="n">
-        <v>318067.8710173334</v>
       </c>
     </row>
     <row r="3">
@@ -26418,13 +26418,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="D4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
         <v>513.1084990597036</v>
@@ -26439,7 +26439,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
@@ -26448,7 +26448,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26476,19 +26476,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="I5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="F5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340947</v>
@@ -26525,22 +26525,22 @@
         <v>234695.6844548643</v>
       </c>
       <c r="D6" t="n">
-        <v>234695.6844548643</v>
+        <v>234695.6844548642</v>
       </c>
       <c r="E6" t="n">
-        <v>268323.2844548644</v>
+        <v>268323.2844548642</v>
       </c>
       <c r="F6" t="n">
-        <v>268323.2844548644</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="G6" t="n">
         <v>268323.2844548643</v>
       </c>
       <c r="H6" t="n">
-        <v>268323.2844548643</v>
+        <v>268323.2844548644</v>
       </c>
       <c r="I6" t="n">
-        <v>268323.2844548642</v>
+        <v>268323.2844548644</v>
       </c>
       <c r="J6" t="n">
         <v>91900.0652622713</v>
@@ -26555,13 +26555,13 @@
         <v>268323.2844548643</v>
       </c>
       <c r="N6" t="n">
-        <v>268323.2844548644</v>
+        <v>268323.2844548643</v>
       </c>
       <c r="O6" t="n">
         <v>268323.2844548644</v>
       </c>
       <c r="P6" t="n">
-        <v>268323.2844548643</v>
+        <v>268323.2844548644</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26750,34 +26750,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545557</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942315</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>115.4815392304392</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31859,7 +31859,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
         <v>50.44659727034983</v>
@@ -32017,7 +32017,7 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044134</v>
       </c>
       <c r="R14" t="n">
         <v>95.39071536633799</v>
@@ -32075,7 +32075,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32087,7 +32087,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
@@ -32230,19 +32230,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32257,13 +32257,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,16 +32382,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32406,16 +32406,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,19 +32777,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33202,16 +33202,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,19 +33251,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
         <v>176.4169820478007</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323596</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L39" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34150,16 +34150,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34220,28 +34220,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34387,16 +34387,16 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,19 +34436,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L45" t="n">
         <v>176.4169820478007</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323549</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>242.1053372686588</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,7 +35735,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,16 +35972,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36850,7 +36850,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,13 +36920,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L39" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37798,7 +37798,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,16 +38105,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489993.034742566</v>
+        <v>1513667.688860411</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573774.7643332757</v>
+        <v>440199.3801096411</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109826</v>
+        <v>4541732.173075097</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10763614.25366229</v>
+        <v>9513403.089520616</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>262.9200879556888</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.63926978364023</v>
       </c>
       <c r="H4" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>95.89547525941809</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>34.89124753355517</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>88.06311349350455</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>138.0618384027766</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>163.8950372953901</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>94.63926978364054</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>63.6549867407491</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>195.0368417062824</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664349</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958679</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183532</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>68.19029374363561</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.5359063634522</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>234.5795352389815</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>317.2283815944591</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>46.3645206679389</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.39856530802038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>302.18032253668</v>
       </c>
     </row>
     <row r="18">
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958668</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183511</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>124.8388016343879</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>14.65339590377563</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7672938155307</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1796758467</v>
+        <v>220.6292656367497</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>4.012178247056795</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>124.3698630809578</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>130.8380249033137</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>134.78685608927</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>107.7150987463412</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>58.29070341759515</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.2036806833086</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>58.70811713027407</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>122.3137095599312</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>2.654169196206305</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.010945960184</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>821.0484290197721</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>1190.010945960184</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1190.010945960184</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="F4" t="n">
-        <v>114.2731207858881</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2731207858881</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2118.55831063583</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2118.55831063583</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1018.106519274536</v>
+        <v>1348.719328075852</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>979.7568111354399</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.480264781541</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.711609511427</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.245851250347</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1018.106519274536</v>
+        <v>1348.719328075852</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>654.0747340636873</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2476.569858826099</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2381.515200905345</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2381.515200905345</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2028.746545635231</v>
       </c>
       <c r="X8" t="n">
-        <v>2476.569858826099</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y8" t="n">
-        <v>2476.569858826099</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2042.012130862979</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C11" t="n">
-        <v>1673.049613922568</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1314.783915315817</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>928.9956627175731</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>928.9956627175731</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G11" t="n">
-        <v>511.9078809540005</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H11" t="n">
-        <v>193.68476572651</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604006</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389909</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="V11" t="n">
-        <v>3368.526868987454</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="W11" t="n">
-        <v>3015.758213717339</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X11" t="n">
-        <v>2818.751302902913</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y11" t="n">
-        <v>2428.611970927101</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>318.0086070413532</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L12" t="n">
-        <v>822.3701469074711</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M12" t="n">
-        <v>1142.705466437173</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>1682.933075334093</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O12" t="n">
-        <v>2232.369084086815</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P12" t="n">
-        <v>2656.336852567651</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662049</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662049</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222299</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230478</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422853</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783891</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669875</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R13" t="n">
-        <v>1051.162934804698</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S13" t="n">
-        <v>843.722650057103</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T13" t="n">
-        <v>618.093453369468</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U13" t="n">
-        <v>618.093453369468</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V13" t="n">
-        <v>363.4089651635811</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="X13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.99179512662049</v>
+        <v>438.7118141694733</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2015.081949825207</v>
+        <v>1362.140678483277</v>
       </c>
       <c r="C14" t="n">
-        <v>1646.119432884795</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.853734278045</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E14" t="n">
-        <v>902.0654816798005</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>491.079576890193</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266205</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403561</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827853</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095564</v>
+        <v>2478.514423990283</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840715</v>
+        <v>2478.514423990283</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.450445159443</v>
+        <v>2478.514423990283</v>
       </c>
       <c r="W14" t="n">
-        <v>2401.681789889329</v>
+        <v>2125.745768720169</v>
       </c>
       <c r="X14" t="n">
-        <v>2401.681789889329</v>
+        <v>1752.280010459089</v>
       </c>
       <c r="Y14" t="n">
-        <v>2401.681789889329</v>
+        <v>1362.140678483277</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266205</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K15" t="n">
-        <v>288.7882622289251</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L15" t="n">
-        <v>793.1498020950429</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M15" t="n">
-        <v>1433.695151562147</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N15" t="n">
-        <v>2106.900843814929</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O15" t="n">
-        <v>2656.336852567651</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P15" t="n">
-        <v>2656.336852567651</v>
+        <v>2643.317569050018</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>224.1084345389562</v>
+        <v>391.8789650099389</v>
       </c>
       <c r="C16" t="n">
-        <v>224.1084345389562</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266205</v>
+        <v>53.9429818203644</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502496</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594896</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="T16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064338</v>
       </c>
       <c r="U16" t="n">
-        <v>784.7743001636425</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="V16" t="n">
-        <v>530.0898119577556</v>
+        <v>681.2961350468995</v>
       </c>
       <c r="W16" t="n">
-        <v>240.672641920795</v>
+        <v>391.8789650099389</v>
       </c>
       <c r="X16" t="n">
-        <v>240.672641920795</v>
+        <v>391.8789650099389</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.1084345389562</v>
+        <v>391.8789650099389</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403568</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>666.0988071604023</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406601</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389913</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556131</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331032</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.37471882786</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095571</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3074.883153840722</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3074.883153840722</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>2722.114498570608</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2348.648740309528</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L18" t="n">
-        <v>711.1141612171745</v>
+        <v>907.781739298549</v>
       </c>
       <c r="M18" t="n">
-        <v>1479.482307609636</v>
+        <v>1548.327088765654</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.893885873787</v>
+        <v>2221.532781018436</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>367.110314756911</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>367.110314756911</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522944</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>198.5034697522944</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662064</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222304</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230487</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422867</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783909</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669898</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165605</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S19" t="n">
-        <v>1261.741367489033</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T19" t="n">
-        <v>1037.955952278539</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U19" t="n">
-        <v>748.827313492097</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="V19" t="n">
-        <v>494.1428252862101</v>
+        <v>819.2419883800784</v>
       </c>
       <c r="W19" t="n">
-        <v>494.1428252862101</v>
+        <v>529.8248183431178</v>
       </c>
       <c r="X19" t="n">
-        <v>266.1532743881928</v>
+        <v>515.0234083393041</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>515.0234083393041</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>1945.375326530675</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>3543.374718827861</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3328.574857095572</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2722.114498570609</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2722.114498570609</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2331.975166594797</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M21" t="n">
-        <v>1890.372576454149</v>
+        <v>1548.327088765654</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>2221.532781018436</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>561.6514624714799</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>392.715279543573</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>851.0686325084405</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>851.0686325084405</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>561.6514624714799</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>561.6514624714799</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>561.6514624714799</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L24" t="n">
-        <v>711.1141612171746</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="M24" t="n">
-        <v>1479.482307609636</v>
+        <v>417.5524109899876</v>
       </c>
       <c r="N24" t="n">
-        <v>1479.482307609636</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.946068912295</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6244,19 +6244,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>865.5852378527474</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1669.996816116898</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926847</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229244</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,7 +6484,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>216.9038434870658</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C31" t="n">
-        <v>216.9038434870658</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D31" t="n">
-        <v>216.9038434870658</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>216.9038434870658</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1366.756649443444</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1366.756649443444</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1077.628010657002</v>
       </c>
       <c r="V31" t="n">
-        <v>955.1031435655738</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="W31" t="n">
-        <v>665.6859735286132</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="X31" t="n">
-        <v>437.6964226305959</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.9038434870658</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M33" t="n">
-        <v>1288.32563221405</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.7372104782</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>394.5250474102529</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>394.5250474102529</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>394.5250474102529</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W34" t="n">
-        <v>622.5145983082703</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X34" t="n">
-        <v>394.5250474102529</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y34" t="n">
-        <v>394.5250474102529</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7016,16 +7016,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7253,16 +7253,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7969603949465</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8607774670396</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1009.579090436494</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X40" t="n">
-        <v>781.5895395384766</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.7969603949465</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="41">
@@ -7411,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>218.5072752290686</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>629.3975440735812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L42" t="n">
-        <v>629.3975440735812</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M42" t="n">
-        <v>629.3975440735812</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.809122337732</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O42" t="n">
-        <v>2103.272883640391</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7602,19 +7602,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>1271.749344574921</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>1017.064856369034</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,16 +7727,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>265.3924131404652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C46" t="n">
-        <v>265.3924131404652</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>1185.240178049213</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>895.8230080122524</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>667.8334571142351</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.040877970705</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
   </sheetData>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>194.3570488013796</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>194.3570488013796</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9722,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9971,7 +9971,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>72.67053247541068</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>258.7875663612649</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,7 +22846,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>91.76886668843275</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23023,10 +23023,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>113.1623291055127</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>123.9453835684542</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>187.5691807675402</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>174.6942589721867</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293356</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6958418817692</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R13" t="n">
-        <v>106.6372753043393</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>130.693356532026</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5238768756758</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23655,10 +23655,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>239.9173535740388</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>202.1860880440744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.05761611937362</v>
       </c>
     </row>
     <row r="18">
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.695841881769</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>73.08200834921534</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>211.0562594852615</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>187.5055979554769</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>103.0576765518773</v>
+        <v>65.63138902134727</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>282.5108200895342</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>22.06409956561133</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>26.93116351641913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>67.08278508028951</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>151.4504963093073</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>178.8078995902498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.5412767643421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.41179233490374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>87.7258455162951</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25842,7 +25842,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>44.93311153869659</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>249.4834741276217</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378184</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>985250.1238371405</v>
+        <v>693966.2640378185</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810565.5736639764</v>
+        <v>693966.2640378183</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810565.5736639766</v>
+        <v>693966.2640378182</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938469.7433705017</v>
+        <v>810565.5736639771</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938469.7433705017</v>
+        <v>810565.5736639774</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938469.7433705017</v>
+        <v>938469.7433705016</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938469.7433705016</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938469.7433705018</v>
+        <v>938469.7433705017</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626558</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.2212626557</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>371509.2212626563</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>371509.2212626563</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="L2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="N2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188426</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659105</v>
+        <v>236417.6520004569</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990975</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965289</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991125</v>
+        <v>60309.58713704837</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="E4" t="n">
-        <v>639.5264553066582</v>
+        <v>513.1084990597033</v>
       </c>
       <c r="F4" t="n">
-        <v>639.5264553066584</v>
+        <v>513.1084990597033</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>639.526455306659</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>639.5264553066593</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="L4" t="n">
         <v>787.7936905758695</v>
@@ -26456,10 +26456,10 @@
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="P4" t="n">
         <v>787.7936905758694</v>
-      </c>
-      <c r="P4" t="n">
-        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360135</v>
+        <v>49231.47806340943</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360136</v>
+        <v>49231.47806340943</v>
       </c>
       <c r="G5" t="n">
+        <v>69171.5432836015</v>
+      </c>
+      <c r="H5" t="n">
+        <v>69171.54328360151</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-360313.123033217</v>
+        <v>-355879.0361342621</v>
       </c>
       <c r="C6" t="n">
-        <v>229654.7561813275</v>
+        <v>234088.8430802824</v>
       </c>
       <c r="D6" t="n">
-        <v>229654.7561813275</v>
+        <v>234088.8430802822</v>
       </c>
       <c r="E6" t="n">
-        <v>49912.1214429643</v>
+        <v>267716.4430802827</v>
       </c>
       <c r="F6" t="n">
-        <v>298058.8900618068</v>
+        <v>267716.4430802823</v>
       </c>
       <c r="G6" t="n">
-        <v>72619.3655465552</v>
+        <v>64916.57337709721</v>
       </c>
       <c r="H6" t="n">
-        <v>336382.2548124656</v>
+        <v>301334.225377554</v>
       </c>
       <c r="I6" t="n">
-        <v>336382.2548124656</v>
+        <v>81727.22734711754</v>
       </c>
       <c r="J6" t="n">
-        <v>159959.0356198727</v>
+        <v>160836.1677536223</v>
       </c>
       <c r="K6" t="n">
-        <v>336382.2548124656</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="L6" t="n">
-        <v>336382.2548124657</v>
+        <v>337259.386946215</v>
       </c>
       <c r="M6" t="n">
-        <v>273929.1989228127</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="N6" t="n">
-        <v>336382.2548124657</v>
+        <v>337259.3869462152</v>
       </c>
       <c r="O6" t="n">
-        <v>266517.3699625545</v>
+        <v>276949.7998091668</v>
       </c>
       <c r="P6" t="n">
-        <v>336382.2548124657</v>
+        <v>337259.3869462151</v>
       </c>
     </row>
   </sheetData>
@@ -26737,37 +26737,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380634</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380635</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="G3" t="n">
+        <v>593.476100338065</v>
+      </c>
+      <c r="H3" t="n">
+        <v>593.4761003380651</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827561</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827563</v>
+        <v>674.287272754555</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.897439082758</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209768</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160368</v>
+        <v>215.7324361209787</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160351</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282029</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708147</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282005</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708168</v>
+        <v>250.6101663282029</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>91.7629536649942</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.44405126592675</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>292.8610109365798</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>75.3017653768929</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.836063383079</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,22 +28019,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>115.481539230439</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31381,25 +31381,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392672</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,19 +31594,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198243</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651535</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779012</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L11" t="n">
-        <v>376.502430971252</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074812</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359658</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822507</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426691</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457569</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810501</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916531</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512814</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N12" t="n">
-        <v>197.6837911710121</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947068</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080781</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308302</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897126</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H13" t="n">
-        <v>9.51507583820699</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784121</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490358</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790237</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441086</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104756</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937804</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522781</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390793</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K15" t="n">
-        <v>90.34233034794664</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>2.385833569198249</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055157</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651559</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.502430971253</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822518</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>343.08584954267</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457576</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810516</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118284</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842453</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O18" t="n">
-        <v>91.84465193776708</v>
+        <v>187.9299570356077</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32338,16 +32338,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080802</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289715</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.1839170478413</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490378</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510478</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522794</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.05837469839390809</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508803</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.9299570356077</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32575,16 +32575,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32794,31 +32794,31 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>380.4309478731437</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>294.9332917681738</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33028,22 +33028,22 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>141.3402618185954</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4943942860908</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,22 +33499,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>274.1948168855309</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,10 +33736,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>48.48571443651716</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33748,7 +33748,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33985,7 +33985,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34210,10 +34210,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>123.2619284664424</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -34231,10 +34231,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34374,7 +34374,7 @@
         <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>242.1053372686586</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.545352539127</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040854</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517152</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M11" t="n">
-        <v>638.098798973041</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233093</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588822</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312121</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748664</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N12" t="n">
-        <v>545.6844534312323</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L13" t="n">
-        <v>186.699994849311</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233372</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369851</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353173</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K15" t="n">
-        <v>216.9661283861662</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122261</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502846</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>54.37527471535805</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517162</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730421</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588831</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312128</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,19 +35965,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O18" t="n">
-        <v>343.1107267700522</v>
+        <v>439.1960318678928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353415</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989111005</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>439.1960318678928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>728.431610133364</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>479.4216529937808</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>489.3409240788156</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>286.9827555116977</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,10 +36919,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>525.460891717816</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>175.1095124747368</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
@@ -37396,7 +37396,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37633,7 +37633,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>122.5153371401846</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N42" t="n">
         <v>812.5369477415663</v>
@@ -37879,10 +37879,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,10 +38104,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
